--- a/controller/src/main/resources/jxls_templates/zichan.xlsx
+++ b/controller/src/main/resources/jxls_templates/zichan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DONG\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work_Code\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8772"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8784"/>
   </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,11 @@
     <t>使用部门</t>
   </si>
   <si>
-    <t>资产状态</t>
-  </si>
-  <si>
     <t>工号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条形码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,7 +428,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -456,10 +457,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -467,7 +468,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E1 G1" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:E1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/controller/src/main/resources/jxls_templates/zichan.xlsx
+++ b/controller/src/main/resources/jxls_templates/zichan.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>件名</t>
   </si>
@@ -41,6 +41,14 @@
   </si>
   <si>
     <t>条形码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条码类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -437,10 +445,10 @@
     <col min="4" max="4" width="10.796875" customWidth="1"/>
     <col min="5" max="5" width="24.796875" customWidth="1"/>
     <col min="6" max="6" width="10.796875" customWidth="1"/>
-    <col min="7" max="7" width="8.796875" customWidth="1"/>
+    <col min="7" max="8" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,6 +469,12 @@
       </c>
       <c r="G1" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/controller/src/main/resources/jxls_templates/zichan.xlsx
+++ b/controller/src/main/resources/jxls_templates/zichan.xlsx
@@ -19,37 +19,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>件名</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>价格</t>
-  </si>
-  <si>
-    <t>购入时间</t>
-  </si>
-  <si>
-    <t>使用部门</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>资产类型</t>
   </si>
   <si>
     <t>工号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>条形码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产编号</t>
+  </si>
+  <si>
+    <t>条码类型</t>
   </si>
   <si>
     <t>资产状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>条码类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在库状态</t>
   </si>
 </sst>
 </file>
@@ -433,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -448,7 +438,7 @@
     <col min="7" max="8" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -469,20 +459,11 @@
       </c>
       <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:E1" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>